--- a/ASP_AIS_Policlinic/wwwroot/Reports/report_specialtiesAll.xlsx
+++ b/ASP_AIS_Policlinic/wwwroot/Reports/report_specialtiesAll.xlsx
@@ -16,17 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Список врачей по специальности</t>
   </si>
   <si>
+    <t>Специальность</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Фамилия</t>
   </si>
   <si>
@@ -39,34 +39,88 @@
     <t>Стаж работы</t>
   </si>
   <si>
-    <t>Специальность</t>
-  </si>
-  <si>
-    <t>Круговов</t>
+    <t>Морозова</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>Акушер</t>
+  </si>
+  <si>
+    <t>Захаров</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Захарович</t>
+  </si>
+  <si>
+    <t>Аллерголог</t>
+  </si>
+  <si>
+    <t>Сонная</t>
+  </si>
+  <si>
+    <t>Василиса</t>
+  </si>
+  <si>
+    <t>Ивановна</t>
+  </si>
+  <si>
+    <t>Глазков</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Иммунолог</t>
+  </si>
+  <si>
+    <t>Зубков</t>
   </si>
   <si>
     <t>Илья</t>
   </si>
   <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Ожоговый хирург</t>
+  </si>
+  <si>
     <t>Офтальмолог</t>
   </si>
   <si>
-    <t>Сегмаш</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>Рудольфович</t>
+    <t>Педиатр</t>
+  </si>
+  <si>
+    <t>Карпов</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Рентгенолог</t>
   </si>
   <si>
     <t>Сомнолог</t>
   </si>
   <si>
-    <t>Der</t>
-  </si>
-  <si>
-    <t>fff</t>
+    <t>Стоматолог</t>
+  </si>
+  <si>
+    <t>Травматолог</t>
   </si>
 </sst>
 </file>
@@ -409,18 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,37 +487,33 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="B3" s="0">
-        <v>1</v>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
@@ -470,7 +521,7 @@
       <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0">
+      <c r="E3" s="0">
         <v>3</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -481,57 +532,214 @@
       <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="B4" s="0">
-        <v>2</v>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0">
-        <v>2</v>
+      <c r="E4" s="0">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="B5" s="0">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>4</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="G9" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="0">
-        <v>1</v>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0">
+        <v>7</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="0">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
